--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,9 +119,6 @@
 </t>
   </si>
   <si>
-    <t>Компания, В целях, Налоговый кодекс, НК РФ, Признана, Контролируемая, Иностранная,  Компания</t>
-  </si>
-  <si>
     <t>Какое лицо признается контролирующим лицом иностранной организации?</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
 </t>
   </si>
   <si>
-    <t>Лицо, Признается, Контролирующим, Лицом, Иностранной организации</t>
-  </si>
-  <si>
     <t>В какой срок налогоплательщики обязаны уведомлять налоговые органы о совершенных ими в календарном году контролируемых сделках?</t>
   </si>
   <si>
@@ -212,12 +206,18 @@
   <si>
     <t>Сведения и документы предоставляются в виде выписки из соответствующего государственного реестра и копий содержащихся документов</t>
   </si>
+  <si>
+    <t>Какое, Лицо, Признается, Контролирующим, Иностранной организации</t>
+  </si>
+  <si>
+    <t>Компания, Цель, Налоговый кодекс, НК РФ, Признана, Контролируемая, Иностранная,  Компания</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -276,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -319,6 +326,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,24 +641,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
@@ -666,7 +676,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -704,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="141.75">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -717,221 +727,221 @@
       <c r="D2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>23</v>
+      <c r="E2" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>27</v>
+      <c r="E3" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="148.5" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="89.25" customHeight="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="187.5" customHeight="1">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1">
+    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1">
+    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1">
+    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1">
+    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>

--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -207,10 +207,10 @@
     <t>Сведения и документы предоставляются в виде выписки из соответствующего государственного реестра и копий содержащихся документов</t>
   </si>
   <si>
-    <t>Какое, Лицо, Признается, Контролирующим, Иностранной организации</t>
-  </si>
-  <si>
-    <t>Компания, Цель, Налоговый кодекс, НК РФ, Признана, Контролируемая, Иностранная,  Компания</t>
+    <t>Какое, Лицо, Признается, Контролирующим, Иностранной организации, Контроль</t>
+  </si>
+  <si>
+    <t>Какая, Компания, Цель, Налоговый кодекс, НК РФ, Признана, Признать, Определить Контролируемая, Контроль, Иностранная,  Компания</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -207,10 +207,10 @@
     <t>Сведения и документы предоставляются в виде выписки из соответствующего государственного реестра и копий содержащихся документов</t>
   </si>
   <si>
-    <t>Какое, Лицо, Признается, Контролирующим, Иностранной организации, Контроль</t>
-  </si>
-  <si>
-    <t>Какая, Компания, Цель, Налоговый кодекс, НК РФ, Признана, Признать, Определить Контролируемая, Контроль, Иностранная,  Компания</t>
+    <t>Какое, Лицо, Признается, Контролировать, Иностранной организации, Контроль</t>
+  </si>
+  <si>
+    <t>Какая, Компания, Цель, Налоговый кодекс, НК РФ, Признана, Признать, Определить Контроль, Иностранная,  Контролировать</t>
   </si>
 </sst>
 </file>

--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -10,8 +10,8 @@
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,11 +112,7 @@
     <t>Контролируемой иностранной компанией признается иностранная организация и иностранная структура без образования юридического лица, не являющаяся налоговым резидентом Российской Федерации, если контролирующим лицом этой организации являются организация или физическое лицо, признаваемые налоговыми резидентами Российской Федерации</t>
   </si>
   <si>
-    <t xml:space="preserve">В соответствии со статьей 25.13 НК РФ контролируемой иностранной компанией в целях НК РФ признается иностранная организация, удовлетворяющая одновременно всем следующим условиям:
-1) организация не признается налоговым резидентом Российской Федерации;
-2) контролирующим лицом организации являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации.
-Контролируемой иностранной компанией также признается иностранная структура без образования юридического лица, контролирующим лицом которой являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации 
-</t>
+    <t>Компания, В целях, Налоговый кодекс, НК РФ, Признана, Контролируемая, Иностранная,  Компания</t>
   </si>
   <si>
     <t>Какое лицо признается контролирующим лицом иностранной организации?</t>
@@ -132,6 +128,9 @@
 </t>
   </si>
   <si>
+    <t>Лицо, Признается, Контролирующим, Лицом, Иностранной организации</t>
+  </si>
+  <si>
     <t>В какой срок налогоплательщики обязаны уведомлять налоговые органы о совершенных ими в календарном году контролируемых сделках?</t>
   </si>
   <si>
@@ -207,17 +206,18 @@
     <t>Сведения и документы предоставляются в виде выписки из соответствующего государственного реестра и копий содержащихся документов</t>
   </si>
   <si>
-    <t>Какое, Лицо, Признается, Контролировать, Иностранной организации, Контроль</t>
-  </si>
-  <si>
-    <t>Какая, Компания, Цель, Налоговый кодекс, НК РФ, Признана, Признать, Определить Контроль, Иностранная,  Контролировать</t>
+    <t xml:space="preserve">В соответствии со статьей 25.13 НК РФ контролируемой иностранной компанией  признается иностранная организация, удовлетворяющая одновременно всем следующим условиям:
+1) организация не признается налоговым резидентом Российской Федерации;
+2) контролирующим лицом организации являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации.
+Контролируемой иностранной компанией также признается иностранная структура без образования юридического лица, контролирующим лицом которой являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации 
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,7 +257,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -641,24 +641,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
@@ -676,7 +676,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -714,7 +714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="141.75">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -724,15 +724,15 @@
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>51</v>
-      </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -745,203 +745,203 @@
       <c r="D3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>50</v>
+      <c r="E3" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="148.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="89.25" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="187.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1">
       <c r="A10" s="8"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="5" customFormat="1">
       <c r="A11" s="8"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="5" customFormat="1">
       <c r="A12" s="8"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="5" customFormat="1">
       <c r="A13" s="8"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>

--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -652,10 +652,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -665,7 +665,7 @@
     <col min="3" max="3" width="78.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="114.28515625" style="14" customWidth="1"/>
     <col min="5" max="5" width="50" style="2" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="101.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="44.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.7109375" style="2" customWidth="1"/>
@@ -730,7 +730,7 @@
       <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="189">
       <c r="A3" s="8" t="s">

--- a/data/minfin/16_questions.xlsx
+++ b/data/minfin/16_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,9 +146,6 @@
     <t>Какие лица признаются взаимозависимыми для целей налогообложения?</t>
   </si>
   <si>
-    <t>Взаимозависимыми для целей налогообложения признаются лица, особенности отношений между которыми могут оказывать влияние на условия, результаты совершаемых сделок, или экономические результаты деятельности этих лиц или деятельности представляемых ими лиц</t>
-  </si>
-  <si>
     <t>В соответствии со статьей 105.1 НК РФ лица признаются взаимозависимыми для целей налогообложения, если особенности отношений между этими лицами могут оказывать влияние на условия и (или) результаты сделок, совершаемых этими лицами, и (или) экономические результаты деятельности этих лиц или деятельности представляемых ими лиц. Для признания взаимной зависимости лиц учитывается влияние, которое может оказываться в силу участия одного лица в капитале других лиц, в соответствии с заключенным между ними соглашением либо при наличии иной возможности одного лица определять решения, принимаемые другими лицами</t>
   </si>
   <si>
@@ -167,9 +164,6 @@
     <t>Признается, Консолидированной группой налогоплательщиков</t>
   </si>
   <si>
-    <t>Каким образом определяется  налоговая база по консолидированной группе налогоплательщиков?</t>
-  </si>
-  <si>
     <t>Налоговая база по консолидированной группе налогоплательщиков определяется как сумма всех налоговых баз участников консолидированной группы с учетом особенностей, установленных налоговым кодексом</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
   </si>
   <si>
     <t>Государственная регистрация юридических лиц и индивидуальных предпринимателей   осуществляется в срок не более чем пять рабочих дней со дня представления документов в регистрирующий орган</t>
-  </si>
-  <si>
-    <t>Государственная регистрация юридических лиц и индивидуальных предпринимателей   осуществляется в срок не более чем пять рабочих дней со дня представления документов в регистрирующий орган (ст.8 Федерального закона от 08.08.2001 № 129-ФЗ «О государственной регистрации юридических лиц и индивидуальных предпринимателей»)</t>
   </si>
   <si>
     <t>Срок, Осуществляется, Государственная регистрация, Юридических лиц, Индивидуальных предпринимателей</t>
@@ -206,11 +197,20 @@
     <t>Сведения и документы предоставляются в виде выписки из соответствующего государственного реестра и копий содержащихся документов</t>
   </si>
   <si>
-    <t xml:space="preserve">В соответствии со статьей 25.13 НК РФ контролируемой иностранной компанией  признается иностранная организация, удовлетворяющая одновременно всем следующим условиям:
+    <t xml:space="preserve">В соответствии со статьей 25.13 НК РФ контролируемой иностранной компанией признается иностранная организация, удовлетворяющая одновременно всем следующим условиям:
 1) организация не признается налоговым резидентом Российской Федерации;
 2) контролирующим лицом организации являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации.
 Контролируемой иностранной компанией также признается иностранная структура без образования юридического лица, контролирующим лицом которой являются организация и (или) физическое лицо, признаваемые налоговыми резидентами Российской Федерации 
 </t>
+  </si>
+  <si>
+    <t>Взаимозависимыми для целей налогообложения признаются л\+ица, особенности отношений между которыми могут оказывать влияние на условия, результаты совершаемых сделок, или экономические результаты деятельности этих лиц или деятельности представляемых ими лиц</t>
+  </si>
+  <si>
+    <t>Каким образом определяется налоговая база по консолидированной группе налогоплательщиков?</t>
+  </si>
+  <si>
+    <t>Государственная регистрация юридических лиц и индивидуальных предпринимателей осуществляется в срок не более чем пять рабочих дней со дня представления документов в регистрирующий орган (ст.8 Федерального закона от 08.08.2001 № 129-ФЗ «О государственной регистрации юридических лиц и индивидуальных предпринимателей»)</t>
   </si>
 </sst>
 </file>
@@ -641,7 +641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,10 +652,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>22</v>
@@ -775,13 +775,13 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" ht="78.75">
@@ -789,16 +789,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="5" customFormat="1" ht="78.75">
@@ -806,16 +806,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="89.25" customHeight="1">
@@ -823,16 +823,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -842,16 +842,16 @@
         <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
